--- a/Special/2016-11-08 Wi-MAX Trends.xlsx
+++ b/Special/2016-11-08 Wi-MAX Trends.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\Special\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
   <si>
     <t>Issue Title</t>
   </si>
@@ -267,6 +267,129 @@
   </si>
   <si>
     <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/14481a68-1bfe-4cd1-9cfe-3da228709b45.kml</t>
+  </si>
+  <si>
+    <t>101-08</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/5ec53735-6b73-4b5a-8bd7-5de6c1a4cae8.kml</t>
+  </si>
+  <si>
+    <t>822-09</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/f7646da2-1042-45f1-9caa-acb098d6d4ea.kml</t>
+  </si>
+  <si>
+    <t>122-10</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/9388ceee-7678-493e-9501-f78194504606.kml</t>
+  </si>
+  <si>
+    <t>128-10</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/da4a3b77-2e3e-4894-b3b3-e5072e40497e.kml</t>
+  </si>
+  <si>
+    <t>217-11</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/9cf0c444-1a25-423e-a5f2-05957bce7f58.kml</t>
+  </si>
+  <si>
+    <t>Hour-long Onboard Wi-MAX outage</t>
+  </si>
+  <si>
+    <t>146-14</t>
+  </si>
+  <si>
+    <t>An hour-long outage. Probably a CCU or onboard network issue? http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/3cadb989-4167-491e-a121-3ecfad387986.kml</t>
+  </si>
+  <si>
+    <t>843-14</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/19aa24bb-fa3e-4397-bbfa-fae5d7dcf126.kml</t>
+  </si>
+  <si>
+    <t>226-14</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/5591698c-fa11-4ba4-84f8-54f1d51a1301.kml</t>
+  </si>
+  <si>
+    <t>141-16</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/8e6919af-5e71-4914-91e0-f833c2332b46.kml</t>
+  </si>
+  <si>
+    <t>134-16</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/435a23d5-c4f1-4f43-bbbb-55e75da0edcf.kml</t>
+  </si>
+  <si>
+    <t>145-16</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/6839d12a-b719-4af1-b432-ee0f912fa2ad.kml</t>
+  </si>
+  <si>
+    <t>843-16</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/51ad0f3b-a2d1-4c34-a712-f246f491f3b1.kml</t>
+  </si>
+  <si>
+    <t>845-16</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/6d86adeb-8fde-4c2d-909d-e4075aeb2b01.kml</t>
+  </si>
+  <si>
+    <t>Wi-MAX went offline for 8 hours</t>
+  </si>
+  <si>
+    <t>105-17</t>
+  </si>
+  <si>
+    <t>11/17/2016 04:31:10 - Wi-MAX went offline for 8 hours</t>
+  </si>
+  <si>
+    <t>841-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/046c23f3-9e3c-4ed0-904d-6191c6ac2cd8.kml_x000D_
+http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/8204d326-206d-49b3-9e45-e764a7a082f4.kml_x000D_
+http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/3fe23091-374d-43bb-9a1d-0279ba7883f6.kml_x000D_
+</t>
+  </si>
+  <si>
+    <t>194-19</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/c45fc70c-4dd9-4631-836d-14c360adf375.kml</t>
+  </si>
+  <si>
+    <t>1833-19</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/845b9768-2025-4afb-a10f-13d49dee9d92.kml</t>
+  </si>
+  <si>
+    <t>125-20</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/d3efc1d1-f402-4846-b75c-25c3c48aba25.kml</t>
+  </si>
+  <si>
+    <t>229-20</t>
+  </si>
+  <si>
+    <t>http://stevetu21.github.io/eaglep3/load_kml.html?kml=http://rtdc.gmaps-snips.s3.amazonaws.com/0f8e85e2-c1ab-4ac1-8210-033dc0828bc1.kml</t>
   </si>
 </sst>
 </file>
@@ -310,11 +433,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,6 +1675,500 @@
         <v>80</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.14049768518518518</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4003</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.8054000000000001</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4013</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="5">
+        <v>42684</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.34285879629629629</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4041</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42684</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.36265046296296299</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4021</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.4677</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="5">
+        <v>42685</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.78362268518518519</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4040</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="4">
+        <v>12.6678</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5">
+        <v>42688</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.42175925925925922</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4054</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="5">
+        <v>42688</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.85388888888888881</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4022</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3.9609000000000001</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5">
+        <v>42688</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.87605324074074076</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4030</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="4">
+        <v>19.825600000000001</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.37717592592592591</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4044</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="4">
+        <v>8.1738</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.37820601851851854</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4010</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="4">
+        <v>8.1751000000000005</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.39842592592592596</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4038</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="4">
+        <v>8.7888999999999999</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.85285879629629635</v>
+      </c>
+      <c r="D48" s="4">
+        <v>4025</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.3574000000000002</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.89427083333333324</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4025</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2.2372000000000001</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="5">
+        <v>42691</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.18806712962962965</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4022</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="4">
+        <v>23.330200000000001</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="5">
+        <v>42691</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.81268518518518518</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4018</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3.7574999999999998</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="5">
+        <v>42693</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.68570601851851853</v>
+      </c>
+      <c r="D52" s="4">
+        <v>4032</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="4">
+        <v>11.8741</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="5">
+        <v>42693</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.93722222222222218</v>
+      </c>
+      <c r="D53" s="4">
+        <v>4022</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.7574999999999998</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="5">
+        <v>42694</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.30619212962962966</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4018</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="4">
+        <v>22.8857</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="5">
+        <v>42694</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.88393518518518521</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4018</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5.0746000000000002</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:H36">
     <sortCondition ref="B2:B36"/>
